--- a/Stocks/KOO.xlsx
+++ b/Stocks/KOO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E93A6741-EA70-4BCB-9F35-7FE6BDBEABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9398F78-9361-40DC-8113-4FBCDF0268DC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E93A6741-EA70-4BCB-9F35-7FE6BDBEABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971DE782-5FF5-400B-9342-C313F49CA783}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{2D4DD9F4-D985-4312-A11D-1B02377D644B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2D4DD9F4-D985-4312-A11D-1B02377D644B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -183,9 +183,6 @@
     <t>CFFO</t>
   </si>
   <si>
-    <t>CFC</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Most recurring rev comes from govern contracts</t>
+  </si>
+  <si>
+    <t>CapeX</t>
   </si>
 </sst>
 </file>
@@ -328,6 +328,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +743,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -748,10 +752,10 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -764,12 +768,12 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -779,13 +783,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3AC964-5D0B-4EFE-90A4-93730CBCF8A3}">
-  <dimension ref="B1:CN57"/>
+  <dimension ref="B1:CN58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,7 +801,7 @@
   <sheetData>
     <row r="1" spans="2:92" x14ac:dyDescent="0.2">
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:92" x14ac:dyDescent="0.2">
@@ -860,7 +864,7 @@
     </row>
     <row r="3" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -985,27 +989,27 @@
         <v>18</v>
       </c>
       <c r="C9" s="6">
-        <f>+C7-C8</f>
+        <f t="shared" ref="C9:H9" si="3">+C7-C8</f>
         <v>6.17</v>
       </c>
       <c r="D9" s="6">
-        <f>+D7-D8</f>
+        <f t="shared" si="3"/>
         <v>13.855</v>
       </c>
       <c r="E9" s="6">
-        <f>+E7-E8</f>
+        <f t="shared" si="3"/>
         <v>7.7880000000000003</v>
       </c>
       <c r="F9" s="6">
-        <f>+F7-F8</f>
+        <f t="shared" si="3"/>
         <v>25.857000000000003</v>
       </c>
       <c r="G9" s="6">
-        <f>+G7-G8</f>
+        <f t="shared" si="3"/>
         <v>26.766999999999999</v>
       </c>
       <c r="H9" s="6">
-        <f>+H7-H8</f>
+        <f t="shared" si="3"/>
         <v>51.987000000000002</v>
       </c>
       <c r="O9" s="6">
@@ -1025,23 +1029,23 @@
         <v>90.306579999999997</v>
       </c>
       <c r="S9" s="6">
-        <f t="shared" ref="S9:W9" si="3">+S7*0.7</f>
+        <f t="shared" ref="S9:W9" si="4">+S7*0.7</f>
         <v>117.39855399999999</v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.61812019999999</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>183.14174424000001</v>
       </c>
       <c r="V9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>219.77009308800001</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263.72411170559997</v>
       </c>
     </row>
@@ -1084,23 +1088,23 @@
         <v>85.2774</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" ref="S10" si="4">+R10*1.3</f>
+        <f t="shared" ref="S10" si="5">+R10*1.3</f>
         <v>110.86062</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" ref="T10:W10" si="5">+S10*1.2</f>
+        <f t="shared" ref="T10:W10" si="6">+S10*1.2</f>
         <v>133.03274399999998</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159.63929279999996</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>191.56715135999994</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>229.88058163199992</v>
       </c>
     </row>
@@ -1109,23 +1113,23 @@
         <v>20</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:G11" si="6">+C10</f>
+        <f t="shared" ref="C11:G11" si="7">+C10</f>
         <v>6.758</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.766999999999999</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.6059999999999999</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.119</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.766999999999999</v>
       </c>
       <c r="H11" s="4">
@@ -1133,11 +1137,11 @@
         <v>42.831000000000003</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11:P11" si="7">+O10</f>
+        <f t="shared" ref="O11:P11" si="8">+O10</f>
         <v>21.524999999999999</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.725000000000001</v>
       </c>
       <c r="Q11" s="4">
@@ -1149,48 +1153,48 @@
         <v>85.2774</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" ref="S11:W11" si="8">+S10</f>
+        <f t="shared" ref="S11:W11" si="9">+S10</f>
         <v>110.86062</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133.03274399999998</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>159.63929279999996</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>191.56715135999994</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>229.88058163199992</v>
       </c>
     </row>
     <row r="12" spans="2:92" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" ref="C12:G12" si="9">+C9-C11</f>
+        <f t="shared" ref="C12:G12" si="10">+C9-C11</f>
         <v>-0.58800000000000008</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.91199999999999903</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.8179999999999996</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.2619999999999969</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H12" s="6">
@@ -1198,39 +1202,39 @@
         <v>9.1559999999999988</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" ref="O12:Q12" si="10">+O9-O11</f>
+        <f t="shared" ref="O12:Q12" si="11">+O9-O11</f>
         <v>-1.4999999999999929</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4.0800000000000054</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13.155999999999992</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ref="R12" si="11">+R9-R11</f>
+        <f t="shared" ref="R12" si="12">+R9-R11</f>
         <v>5.0291799999999967</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" ref="S12" si="12">+S9-S11</f>
+        <f t="shared" ref="S12" si="13">+S9-S11</f>
         <v>6.5379339999999928</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" ref="T12" si="13">+T9-T11</f>
+        <f t="shared" ref="T12" si="14">+T9-T11</f>
         <v>19.585376200000013</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" ref="U12" si="14">+U9-U11</f>
+        <f t="shared" ref="U12" si="15">+U9-U11</f>
         <v>23.502451440000044</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" ref="V12" si="15">+V9-V11</f>
+        <f t="shared" ref="V12" si="16">+V9-V11</f>
         <v>28.20294172800007</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" ref="W12" si="16">+W9-W11</f>
+        <f t="shared" ref="W12" si="17">+W9-W11</f>
         <v>33.84353007360005</v>
       </c>
     </row>
@@ -1273,23 +1277,23 @@
         <v>0.76443500000000009</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" ref="S13:W13" si="17">+R28*0.035</f>
+        <f t="shared" ref="S13:W13" si="18">+R28*0.035</f>
         <v>0.92665622000000003</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1356647461599998</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.7158538926524802</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4219664419667506</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2794638707258219</v>
       </c>
     </row>
@@ -1298,23 +1302,23 @@
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:G14" si="18">+C12+C13</f>
+        <f t="shared" ref="C14:G14" si="19">+C12+C13</f>
         <v>-0.57100000000000006</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.83099999999999907</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.7269999999999996</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.9639999999999969</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.3010000000000002</v>
       </c>
       <c r="H14" s="4">
@@ -1322,39 +1326,39 @@
         <v>9.8579999999999988</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14:R14" si="19">+O12+O13</f>
+        <f t="shared" ref="O14:R14" si="20">+O12+O13</f>
         <v>-1.4019999999999928</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.6910000000000052</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14.158999999999992</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7936149999999964</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" ref="S14" si="20">+S12+S13</f>
+        <f t="shared" ref="S14" si="21">+S12+S13</f>
         <v>7.4645902199999927</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" ref="T14" si="21">+T12+T13</f>
+        <f t="shared" ref="T14" si="22">+T12+T13</f>
         <v>20.721040946160013</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" ref="U14" si="22">+U12+U13</f>
+        <f t="shared" ref="U14" si="23">+U12+U13</f>
         <v>25.218305332652523</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" ref="V14" si="23">+V12+V13</f>
+        <f t="shared" ref="V14" si="24">+V12+V13</f>
         <v>30.624908169966822</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" ref="W14" si="24">+W12+W13</f>
+        <f t="shared" ref="W14" si="25">+W12+W13</f>
         <v>37.12299394432587</v>
       </c>
     </row>
@@ -1400,23 +1404,23 @@
         <v>1.1587229999999993</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:W15" si="25">+S14*0.2</f>
+        <f t="shared" ref="S15:W15" si="26">+S14*0.2</f>
         <v>1.4929180439999987</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.1442081892320024</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.0436610665305048</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.1249816339933645</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.4245987888651745</v>
       </c>
     </row>
@@ -1425,23 +1429,23 @@
         <v>24</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" ref="C16:G16" si="26">+C14+C15</f>
+        <f t="shared" ref="C16:G16" si="27">+C14+C15</f>
         <v>-0.34200000000000008</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.71599999999999908</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.52499999999999969</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.16899999999999693</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.2309999999999999</v>
       </c>
       <c r="H16" s="6">
@@ -1449,15 +1453,15 @@
         <v>11.681999999999999</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" ref="O16:Q16" si="27">+O14+O15</f>
+        <f t="shared" ref="O16:Q16" si="28">+O14+O15</f>
         <v>-1.0579999999999927</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.69400000000000528</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14.912999999999991</v>
       </c>
       <c r="R16" s="6">
@@ -1465,299 +1469,299 @@
         <v>4.6348919999999971</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" ref="S16:W16" si="28">+S14-S15</f>
+        <f t="shared" ref="S16:W16" si="29">+S14-S15</f>
         <v>5.971672175999994</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>16.57683275692801</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>20.174644266122019</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>24.499926535973458</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>29.698395155460695</v>
       </c>
       <c r="X16" s="6">
-        <f>+W16*(1-$K$22)</f>
+        <f t="shared" ref="X16:BC16" si="30">+W16*(1-$K$22)</f>
         <v>29.104427252351481</v>
       </c>
       <c r="Y16" s="6">
-        <f>+X16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>28.522338707304453</v>
       </c>
       <c r="Z16" s="6">
-        <f>+Y16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>27.951891933158365</v>
       </c>
       <c r="AA16" s="6">
-        <f>+Z16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>27.392854094495195</v>
       </c>
       <c r="AB16" s="6">
-        <f>+AA16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>26.84499701260529</v>
       </c>
       <c r="AC16" s="6">
-        <f>+AB16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>26.308097072353185</v>
       </c>
       <c r="AD16" s="6">
-        <f>+AC16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>25.78193513090612</v>
       </c>
       <c r="AE16" s="6">
-        <f>+AD16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>25.266296428287998</v>
       </c>
       <c r="AF16" s="6">
-        <f>+AE16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>24.760970499722237</v>
       </c>
       <c r="AG16" s="6">
-        <f>+AF16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>24.265751089727793</v>
       </c>
       <c r="AH16" s="6">
-        <f>+AG16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>23.780436067933238</v>
       </c>
       <c r="AI16" s="6">
-        <f>+AH16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>23.304827346574573</v>
       </c>
       <c r="AJ16" s="6">
-        <f>+AI16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>22.838730799643081</v>
       </c>
       <c r="AK16" s="6">
-        <f>+AJ16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>22.381956183650217</v>
       </c>
       <c r="AL16" s="6">
-        <f>+AK16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>21.934317059977214</v>
       </c>
       <c r="AM16" s="6">
-        <f>+AL16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>21.495630718777669</v>
       </c>
       <c r="AN16" s="6">
-        <f>+AM16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>21.065718104402116</v>
       </c>
       <c r="AO16" s="6">
-        <f>+AN16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>20.644403742314072</v>
       </c>
       <c r="AP16" s="6">
-        <f>+AO16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>20.231515667467789</v>
       </c>
       <c r="AQ16" s="6">
-        <f>+AP16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>19.826885354118435</v>
       </c>
       <c r="AR16" s="6">
-        <f>+AQ16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>19.430347647036065</v>
       </c>
       <c r="AS16" s="6">
-        <f>+AR16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>19.041740694095342</v>
       </c>
       <c r="AT16" s="6">
-        <f>+AS16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>18.660905880213434</v>
       </c>
       <c r="AU16" s="6">
-        <f>+AT16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>18.287687762609167</v>
       </c>
       <c r="AV16" s="6">
-        <f>+AU16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>17.921934007356985</v>
       </c>
       <c r="AW16" s="6">
-        <f>+AV16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>17.563495327209843</v>
       </c>
       <c r="AX16" s="6">
-        <f>+AW16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>17.212225420665646</v>
       </c>
       <c r="AY16" s="6">
-        <f>+AX16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>16.867980912252332</v>
       </c>
       <c r="AZ16" s="6">
-        <f>+AY16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>16.530621294007286</v>
       </c>
       <c r="BA16" s="6">
-        <f>+AZ16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>16.200008868127139</v>
       </c>
       <c r="BB16" s="6">
-        <f>+BA16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>15.876008690764596</v>
       </c>
       <c r="BC16" s="6">
-        <f>+BB16*(1-$K$22)</f>
+        <f t="shared" si="30"/>
         <v>15.558488516949303</v>
       </c>
       <c r="BD16" s="6">
-        <f>+BC16*(1-$K$22)</f>
+        <f t="shared" ref="BD16:CN16" si="31">+BC16*(1-$K$22)</f>
         <v>15.247318746610317</v>
       </c>
       <c r="BE16" s="6">
-        <f>+BD16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>14.942372371678109</v>
       </c>
       <c r="BF16" s="6">
-        <f>+BE16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>14.643524924244547</v>
       </c>
       <c r="BG16" s="6">
-        <f>+BF16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>14.350654425759656</v>
       </c>
       <c r="BH16" s="6">
-        <f>+BG16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>14.063641337244462</v>
       </c>
       <c r="BI16" s="6">
-        <f>+BH16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>13.782368510499573</v>
       </c>
       <c r="BJ16" s="6">
-        <f>+BI16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>13.506721140289581</v>
       </c>
       <c r="BK16" s="6">
-        <f>+BJ16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>13.236586717483789</v>
       </c>
       <c r="BL16" s="6">
-        <f>+BK16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>12.971854983134113</v>
       </c>
       <c r="BM16" s="6">
-        <f>+BL16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>12.712417883471431</v>
       </c>
       <c r="BN16" s="6">
-        <f>+BM16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>12.458169525802003</v>
       </c>
       <c r="BO16" s="6">
-        <f>+BN16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>12.209006135285962</v>
       </c>
       <c r="BP16" s="6">
-        <f>+BO16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>11.964826012580243</v>
       </c>
       <c r="BQ16" s="6">
-        <f>+BP16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>11.725529492328638</v>
       </c>
       <c r="BR16" s="6">
-        <f>+BQ16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>11.491018902482065</v>
       </c>
       <c r="BS16" s="6">
-        <f>+BR16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>11.261198524432423</v>
       </c>
       <c r="BT16" s="6">
-        <f>+BS16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>11.035974553943774</v>
       </c>
       <c r="BU16" s="6">
-        <f>+BT16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>10.815255062864898</v>
       </c>
       <c r="BV16" s="6">
-        <f>+BU16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>10.5989499616076</v>
       </c>
       <c r="BW16" s="6">
-        <f>+BV16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>10.386970962375448</v>
       </c>
       <c r="BX16" s="6">
-        <f>+BW16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>10.179231543127939</v>
       </c>
       <c r="BY16" s="6">
-        <f>+BX16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.975646912265379</v>
       </c>
       <c r="BZ16" s="6">
-        <f>+BY16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.7761339740200714</v>
       </c>
       <c r="CA16" s="6">
-        <f>+BZ16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.5806112945396702</v>
       </c>
       <c r="CB16" s="6">
-        <f>+CA16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.3889990686488769</v>
       </c>
       <c r="CC16" s="6">
-        <f>+CB16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.2012190872758985</v>
       </c>
       <c r="CD16" s="6">
-        <f>+CC16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>9.0171947055303807</v>
       </c>
       <c r="CE16" s="6">
-        <f>+CD16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>8.8368508114197724</v>
       </c>
       <c r="CF16" s="6">
-        <f>+CE16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>8.6601137951913767</v>
       </c>
       <c r="CG16" s="6">
-        <f>+CF16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>8.4869115192875491</v>
       </c>
       <c r="CH16" s="6">
-        <f>+CG16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>8.3171732889017971</v>
       </c>
       <c r="CI16" s="6">
-        <f>+CH16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>8.150829823123761</v>
       </c>
       <c r="CJ16" s="6">
-        <f>+CI16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>7.9878132266612853</v>
       </c>
       <c r="CK16" s="6">
-        <f>+CJ16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>7.8280569621280591</v>
       </c>
       <c r="CL16" s="6">
-        <f>+CK16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>7.6714958228854977</v>
       </c>
       <c r="CM16" s="6">
-        <f>+CL16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>7.5180659064277879</v>
       </c>
       <c r="CN16" s="6">
-        <f>+CM16*(1-$K$22)</f>
+        <f t="shared" si="31"/>
         <v>7.3677045882992322</v>
       </c>
     </row>
@@ -1800,23 +1804,23 @@
         <v>0.10983446483418907</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:W17" si="29">+S16/S18</f>
+        <f t="shared" ref="S17:W17" si="32">+S16/S18</f>
         <v>0.12305439725572277</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29703313202052939</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.31434849397227788</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.33194982200018536</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.34989907883907162</v>
       </c>
       <c r="X17" s="4" t="s">
@@ -1862,70 +1866,70 @@
         <v>42.198885449999992</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18:W18" si="30">+R18*1.15</f>
+        <f t="shared" ref="S18:W18" si="33">+R18*1.15</f>
         <v>48.52871826749999</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>55.808026007624981</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>64.179229908768718</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>73.806114395084023</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>84.877031554346615</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="7">
         <f>+P18/O18-1</f>
         <v>5.1717103842910728E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" ref="P19:Q19" si="31">+Q18/P18-1</f>
+        <f t="shared" ref="P19:Q19" si="34">+Q18/P18-1</f>
         <v>5.5496619116893076E-2</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" ref="R19" si="32">+S18/R18-1</f>
+        <f t="shared" ref="R19" si="35">+S18/R18-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" ref="S19" si="33">+T18/S18-1</f>
+        <f t="shared" ref="S19" si="36">+T18/S18-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" ref="T19" si="34">+U18/T18-1</f>
+        <f t="shared" ref="T19" si="37">+U18/T18-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" ref="U19" si="35">+V18/U18-1</f>
+        <f t="shared" ref="U19" si="38">+V18/U18-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" ref="V19" si="36">+W18/V18-1</f>
+        <f t="shared" ref="V19" si="39">+W18/V18-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" ref="W19" si="37">+X18/W18-1</f>
+        <f t="shared" ref="W19" si="40">+X18/W18-1</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="2:30" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>0</v>
@@ -1938,33 +1942,33 @@
         <v>2.4605835847917938</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:W20" si="38">+R18/R16</f>
+        <f t="shared" ref="R20:W20" si="41">+R18/R16</f>
         <v>9.1046103015992639</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.126487328379433</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.3666278007359973</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.1811827292806725</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.0125034981926926</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.8579669409759378</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>0</v>
@@ -1989,7 +1993,7 @@
         <v>1.0020997690254072</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7">
         <v>0.02</v>
@@ -2009,60 +2013,60 @@
         <v>2.4053256468327495</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" ref="R22:W22" si="39">+R7/P7-1</f>
+        <f t="shared" ref="R22:W22" si="42">+R7/P7-1</f>
         <v>1.8670666933351114</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.69</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.43999999999999972</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7">
-        <f>+C9/C7</f>
+        <f t="shared" ref="C23:H23" si="43">+C9/C7</f>
         <v>0.68388383950343601</v>
       </c>
       <c r="D23" s="7">
-        <f>+D9/D7</f>
+        <f t="shared" si="43"/>
         <v>0.68861829025844934</v>
       </c>
       <c r="E23" s="7">
-        <f>+E9/E7</f>
+        <f t="shared" si="43"/>
         <v>0.66792452830188676</v>
       </c>
       <c r="F23" s="7">
-        <f>+F9/F7</f>
+        <f t="shared" si="43"/>
         <v>0.77562468128505868</v>
       </c>
       <c r="G23" s="7">
-        <f>+G9/G7</f>
+        <f t="shared" si="43"/>
         <v>0.82375207730657962</v>
       </c>
       <c r="H23" s="7">
-        <f>+H9/H7</f>
+        <f t="shared" si="43"/>
         <v>0.77890147428982381</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="7">
         <v>0.09</v>
@@ -2080,63 +2084,63 @@
         <v>0.79358713396078107</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" ref="R23:W23" si="40">+R9/R7</f>
+        <f t="shared" ref="R23:W23" si="44">+R9/R7</f>
         <v>0.7</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7">
-        <f>+C12/C7</f>
+        <f t="shared" ref="C24:H24" si="45">+C12/C7</f>
         <v>-6.5174019064508981E-2</v>
       </c>
       <c r="D24" s="7">
-        <f>+D12/D7</f>
+        <f t="shared" si="45"/>
         <v>-4.5328031809145082E-2</v>
       </c>
       <c r="E24" s="7">
-        <f>+E12/E7</f>
+        <f t="shared" si="45"/>
         <v>-0.15591766723842193</v>
       </c>
       <c r="F24" s="7">
-        <f>+F12/F7</f>
+        <f t="shared" si="45"/>
         <v>-6.7852536221015586E-2</v>
       </c>
       <c r="G24" s="7">
-        <f>+G12/G7</f>
+        <f t="shared" si="45"/>
         <v>0.12309964916599987</v>
       </c>
       <c r="H24" s="7">
-        <f>+H12/H7</f>
+        <f t="shared" si="45"/>
         <v>0.13718087019057892</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" s="4">
         <f>+NPV(K23,R16:CN16)-main!L5+main!L6</f>
@@ -2155,60 +2159,60 @@
         <v>0.13257018480823871</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" ref="R24:W24" si="41">+R12/R7</f>
+        <f t="shared" ref="R24:W24" si="46">+R12/R7</f>
         <v>3.8983050847457602E-2</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>3.8983050847457582E-2</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8.9830508474576326E-2</v>
       </c>
       <c r="U24" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8.9830508474576437E-2</v>
       </c>
       <c r="V24" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8.9830508474576493E-2</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8.9830508474576409E-2</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7">
-        <f>+C15/C14</f>
+        <f t="shared" ref="C25:H25" si="47">+C15/C14</f>
         <v>-0.40105078809106826</v>
       </c>
       <c r="D25" s="7">
-        <f>+D15/D14</f>
+        <f t="shared" si="47"/>
         <v>-0.13838748495788222</v>
       </c>
       <c r="E25" s="7">
-        <f>+E15/E14</f>
+        <f t="shared" si="47"/>
         <v>-0.69600463231036491</v>
       </c>
       <c r="F25" s="7">
-        <f>+F15/F14</f>
+        <f t="shared" si="47"/>
         <v>-0.91395112016293423</v>
       </c>
       <c r="G25" s="7">
-        <f>+G15/G14</f>
+        <f t="shared" si="47"/>
         <v>-0.24877935363868869</v>
       </c>
       <c r="H25" s="7">
-        <f>+H15/H14</f>
+        <f t="shared" si="47"/>
         <v>0.1850273889227024</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25" s="8">
         <f>+K24/main!L3</f>
@@ -2227,33 +2231,33 @@
         <v>5.3252348329684333E-2</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" ref="R25:W25" si="42">+R15/R14</f>
+        <f t="shared" ref="R25:W25" si="48">+R15/R14</f>
         <v>0.2</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7">
         <f>+ABS(E16/C16-1)</f>
@@ -2272,7 +2276,7 @@
         <v>70.124260355030827</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7">
         <f>+K25/main!L2-1</f>
@@ -2290,27 +2294,27 @@
         <v>15.095463137996308</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" ref="R26:W26" si="43">+ABS(R16/P16-1)</f>
+        <f t="shared" ref="R26:W26" si="49">+ABS(R16/P16-1)</f>
         <v>7.6785187319884178</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.59956600442566899</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>2.5765305333820119</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>2.3783911225407559</v>
       </c>
       <c r="V26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.47796185768563815</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.47206536897065865</v>
       </c>
     </row>
@@ -2319,27 +2323,27 @@
         <v>26</v>
       </c>
       <c r="C28" s="6">
-        <f>+C29-C39</f>
+        <f t="shared" ref="C28:H28" si="50">+C29-C39</f>
         <v>7.9790000000000001</v>
       </c>
       <c r="D28" s="6">
-        <f>+D29-D39</f>
+        <f t="shared" si="50"/>
         <v>8.4920000000000009</v>
       </c>
       <c r="E28" s="6">
-        <f>+E29-E39</f>
+        <f t="shared" si="50"/>
         <v>5.85</v>
       </c>
       <c r="F28" s="6">
-        <f>+F29-F39</f>
+        <f t="shared" si="50"/>
         <v>11.004</v>
       </c>
       <c r="G28" s="6">
-        <f>+G29-G39</f>
+        <f t="shared" si="50"/>
         <v>14.94</v>
       </c>
       <c r="H28" s="6">
-        <f>+H29-H39</f>
+        <f t="shared" si="50"/>
         <v>21.841000000000001</v>
       </c>
       <c r="O28" s="6">
@@ -2355,55 +2359,55 @@
         <v>21.841000000000001</v>
       </c>
       <c r="R28" s="6">
-        <f>+Q28+R16</f>
+        <f t="shared" ref="R28:AD28" si="51">+Q28+R16</f>
         <v>26.475891999999998</v>
       </c>
       <c r="S28" s="6">
-        <f>+R28+S16</f>
+        <f t="shared" si="51"/>
         <v>32.447564175999993</v>
       </c>
       <c r="T28" s="6">
-        <f>+S28+T16</f>
+        <f t="shared" si="51"/>
         <v>49.024396932927999</v>
       </c>
       <c r="U28" s="6">
-        <f>+T28+U16</f>
+        <f t="shared" si="51"/>
         <v>69.199041199050015</v>
       </c>
       <c r="V28" s="6">
-        <f>+U28+V16</f>
+        <f t="shared" si="51"/>
         <v>93.698967735023473</v>
       </c>
       <c r="W28" s="6">
-        <f>+V28+W16</f>
+        <f t="shared" si="51"/>
         <v>123.39736289048417</v>
       </c>
       <c r="X28" s="6">
-        <f>+W28+X16</f>
+        <f t="shared" si="51"/>
         <v>152.50179014283566</v>
       </c>
       <c r="Y28" s="6">
-        <f>+X28+Y16</f>
+        <f t="shared" si="51"/>
         <v>181.0241288501401</v>
       </c>
       <c r="Z28" s="6">
-        <f>+Y28+Z16</f>
+        <f t="shared" si="51"/>
         <v>208.97602078329845</v>
       </c>
       <c r="AA28" s="6">
-        <f>+Z28+AA16</f>
+        <f t="shared" si="51"/>
         <v>236.36887487779364</v>
       </c>
       <c r="AB28" s="6">
-        <f>+AA28+AB16</f>
+        <f t="shared" si="51"/>
         <v>263.21387189039893</v>
       </c>
       <c r="AC28" s="6">
-        <f>+AB28+AC16</f>
+        <f t="shared" si="51"/>
         <v>289.52196896275211</v>
       </c>
       <c r="AD28" s="6">
-        <f>+AC28+AD16</f>
+        <f t="shared" si="51"/>
         <v>315.30390409365822</v>
       </c>
     </row>
@@ -2596,27 +2600,27 @@
         <v>34</v>
       </c>
       <c r="C37" s="6">
-        <f>+SUM(C29:C36)</f>
+        <f t="shared" ref="C37:H37" si="52">+SUM(C29:C36)</f>
         <v>15.47</v>
       </c>
       <c r="D37" s="6">
-        <f>+SUM(D29:D36)</f>
+        <f t="shared" si="52"/>
         <v>16.142000000000003</v>
       </c>
       <c r="E37" s="6">
-        <f>+SUM(E29:E36)</f>
+        <f t="shared" si="52"/>
         <v>16.518999999999998</v>
       </c>
       <c r="F37" s="6">
-        <f>+SUM(F29:F36)</f>
+        <f t="shared" si="52"/>
         <v>30.685000000000002</v>
       </c>
       <c r="G37" s="6">
-        <f>+SUM(G29:G36)</f>
+        <f t="shared" si="52"/>
         <v>35.890999999999991</v>
       </c>
       <c r="H37" s="6">
-        <f>+SUM(H29:H36)</f>
+        <f t="shared" si="52"/>
         <v>43.001000000000005</v>
       </c>
     </row>
@@ -2789,23 +2793,23 @@
         <v>40</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" ref="C46:G46" si="44">+SUM(C39:C45)</f>
+        <f t="shared" ref="C46:G46" si="53">+SUM(C39:C45)</f>
         <v>4.8209999999999997</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>5.6230000000000002</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>10.636000000000001</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>9.9269999999999996</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>5.8790000000000004</v>
       </c>
       <c r="H46" s="6">
@@ -2823,27 +2827,27 @@
         <v>41</v>
       </c>
       <c r="C48" s="4">
-        <f>+C37-C46</f>
+        <f t="shared" ref="C48:H48" si="54">+C37-C46</f>
         <v>10.649000000000001</v>
       </c>
       <c r="D48" s="4">
-        <f>+D37-D46</f>
+        <f t="shared" si="54"/>
         <v>10.519000000000002</v>
       </c>
       <c r="E48" s="4">
-        <f>+E37-E46</f>
+        <f t="shared" si="54"/>
         <v>5.8829999999999973</v>
       </c>
       <c r="F48" s="4">
-        <f>+F37-F46</f>
+        <f t="shared" si="54"/>
         <v>20.758000000000003</v>
       </c>
       <c r="G48" s="4">
-        <f>+G37-G46</f>
+        <f t="shared" si="54"/>
         <v>30.01199999999999</v>
       </c>
       <c r="H48" s="4">
-        <f>+H37-H46</f>
+        <f t="shared" si="54"/>
         <v>29.724000000000004</v>
       </c>
     </row>
@@ -2868,11 +2872,11 @@
         <v>30.685000000000002</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" ref="G49:H49" si="45">+G46+G48</f>
+        <f t="shared" ref="G49:H49" si="55">+G46+G48</f>
         <v>35.890999999999991</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>43.001000000000005</v>
       </c>
     </row>
@@ -2881,27 +2885,27 @@
         <v>43</v>
       </c>
       <c r="C51" s="7">
-        <f>+C37/C16</f>
+        <f t="shared" ref="C51:H51" si="56">+C37/C16</f>
         <v>-45.233918128654963</v>
       </c>
       <c r="D51" s="7">
-        <f>+D37/D16</f>
+        <f t="shared" si="56"/>
         <v>-22.5446927374302</v>
       </c>
       <c r="E51" s="7">
-        <f>+E37/E16</f>
+        <f t="shared" si="56"/>
         <v>-31.464761904761922</v>
       </c>
       <c r="F51" s="7">
-        <f>+F37/F16</f>
+        <f t="shared" si="56"/>
         <v>-181.56804733728143</v>
       </c>
       <c r="G51" s="7">
-        <f>+G37/G16</f>
+        <f t="shared" si="56"/>
         <v>11.108325595790774</v>
       </c>
       <c r="H51" s="7">
-        <f>+H37/H16</f>
+        <f t="shared" si="56"/>
         <v>3.6809621640130121</v>
       </c>
     </row>
@@ -2910,27 +2914,27 @@
         <v>44</v>
       </c>
       <c r="C52" s="7">
-        <f>+C48/C16</f>
+        <f t="shared" ref="C52:H52" si="57">+C48/C16</f>
         <v>-31.137426900584792</v>
       </c>
       <c r="D52" s="7">
-        <f>+D48/D16</f>
+        <f t="shared" si="57"/>
         <v>-14.691340782122927</v>
       </c>
       <c r="E52" s="7">
-        <f>+E48/E16</f>
+        <f t="shared" si="57"/>
         <v>-11.205714285714286</v>
       </c>
       <c r="F52" s="7">
-        <f>+F48/F16</f>
+        <f t="shared" si="57"/>
         <v>-122.82840236686616</v>
       </c>
       <c r="G52" s="7">
-        <f>+G48/G16</f>
+        <f t="shared" si="57"/>
         <v>9.2887650882079829</v>
       </c>
       <c r="H52" s="7">
-        <f>+H48/H16</f>
+        <f t="shared" si="57"/>
         <v>2.5444273240883417</v>
       </c>
     </row>
@@ -2995,28 +2999,25 @@
       </c>
     </row>
     <row r="57" spans="2:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="6">
-        <f>+D54+D55+D56</f>
-        <v>18.803599999999999</v>
-      </c>
-      <c r="E57" s="6">
-        <f>+E54+E55+E56</f>
-        <v>19.954599999999999</v>
-      </c>
-      <c r="F57" s="6">
-        <f>+F54+F55+F56</f>
-        <v>-6.8389999999999995</v>
-      </c>
-      <c r="G57" s="6">
-        <f>+G54+G55+G56</f>
-        <v>3.9359999999999999</v>
-      </c>
-      <c r="H57" s="6">
-        <f>+H54+H55+H56</f>
-        <v>10.782</v>
+      <c r="D57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
